--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Tspan1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.498646</v>
       </c>
       <c r="O2">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="P2">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="Q2">
-        <v>0.3825706300688889</v>
+        <v>0.4748267886822222</v>
       </c>
       <c r="R2">
-        <v>3.44313567062</v>
+        <v>4.27344109814</v>
       </c>
       <c r="S2">
-        <v>0.007186362497579006</v>
+        <v>0.006931146927740787</v>
       </c>
       <c r="T2">
-        <v>0.007186362497579005</v>
+        <v>0.006931146927740788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4346316666666666</v>
+        <v>0.4346316666666667</v>
       </c>
       <c r="N3">
         <v>1.303895</v>
       </c>
       <c r="O3">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="P3">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="Q3">
-        <v>1.000372873127778</v>
+        <v>1.241610833394444</v>
       </c>
       <c r="R3">
-        <v>9.00335585815</v>
+        <v>11.17449750055</v>
       </c>
       <c r="S3">
-        <v>0.01879141139963176</v>
+        <v>0.01812405558922878</v>
       </c>
       <c r="T3">
-        <v>0.01879141139963175</v>
+        <v>0.01812405558922878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09816233333333334</v>
+        <v>0.09482533333333333</v>
       </c>
       <c r="N4">
-        <v>0.294487</v>
+        <v>0.284476</v>
       </c>
       <c r="O4">
-        <v>0.09285434561755439</v>
+        <v>0.06879423637033719</v>
       </c>
       <c r="P4">
-        <v>0.09285434561755437</v>
+        <v>0.0687942363703372</v>
       </c>
       <c r="Q4">
-        <v>0.2259359889322222</v>
+        <v>0.2708872136488889</v>
       </c>
       <c r="R4">
-        <v>2.03342390039</v>
+        <v>2.43798492284</v>
       </c>
       <c r="S4">
-        <v>0.004244073617003945</v>
+        <v>0.0039541978746766</v>
       </c>
       <c r="T4">
-        <v>0.004244073617003943</v>
+        <v>0.003954197874676601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3581553333333334</v>
+        <v>0.6827183333333333</v>
       </c>
       <c r="N5">
-        <v>1.074466</v>
+        <v>2.048155</v>
       </c>
       <c r="O5">
-        <v>0.3387885961631963</v>
+        <v>0.495301041891365</v>
       </c>
       <c r="P5">
-        <v>0.3387885961631963</v>
+        <v>0.4953010418913651</v>
       </c>
       <c r="Q5">
-        <v>0.824350610668889</v>
+        <v>1.950319187105555</v>
       </c>
       <c r="R5">
-        <v>7.419155496020002</v>
+        <v>17.55287268395</v>
       </c>
       <c r="S5">
-        <v>0.01548493754552072</v>
+        <v>0.02846922112237325</v>
       </c>
       <c r="T5">
-        <v>0.01548493754552072</v>
+        <v>0.02846922112237325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>114.933136</v>
       </c>
       <c r="I6">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J6">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.498646</v>
       </c>
       <c r="O6">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="P6">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="Q6">
         <v>6.367883170428444</v>
@@ -824,10 +824,10 @@
         <v>57.310948533856</v>
       </c>
       <c r="S6">
-        <v>0.1196169104687707</v>
+        <v>0.09295333566882191</v>
       </c>
       <c r="T6">
-        <v>0.1196169104687707</v>
+        <v>0.09295333566882191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,16 +868,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4346316666666666</v>
+        <v>0.4346316666666667</v>
       </c>
       <c r="N7">
         <v>1.303895</v>
       </c>
       <c r="O7">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="P7">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="Q7">
         <v>16.65119348496889</v>
@@ -886,10 +886,10 @@
         <v>149.86074136472</v>
       </c>
       <c r="S7">
-        <v>0.3127827987704258</v>
+        <v>0.2430609883803311</v>
       </c>
       <c r="T7">
-        <v>0.3127827987704258</v>
+        <v>0.243060988380331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09816233333333334</v>
+        <v>0.09482533333333333</v>
       </c>
       <c r="N8">
-        <v>0.294487</v>
+        <v>0.284476</v>
       </c>
       <c r="O8">
-        <v>0.09285434561755439</v>
+        <v>0.06879423637033719</v>
       </c>
       <c r="P8">
-        <v>0.09285434561755437</v>
+        <v>0.0687942363703372</v>
       </c>
       <c r="Q8">
-        <v>3.760701602359111</v>
+        <v>3.632857644081778</v>
       </c>
       <c r="R8">
-        <v>33.846314421232</v>
+        <v>32.695718796736</v>
       </c>
       <c r="S8">
-        <v>0.07064255025251757</v>
+        <v>0.05302959036615913</v>
       </c>
       <c r="T8">
-        <v>0.07064255025251755</v>
+        <v>0.05302959036615913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3581553333333334</v>
+        <v>0.6827183333333333</v>
       </c>
       <c r="N9">
-        <v>1.074466</v>
+        <v>2.048155</v>
       </c>
       <c r="O9">
-        <v>0.3387885961631963</v>
+        <v>0.495301041891365</v>
       </c>
       <c r="P9">
-        <v>0.3387885961631963</v>
+        <v>0.4953010418913651</v>
       </c>
       <c r="Q9">
-        <v>13.72130521170845</v>
+        <v>26.15565301823111</v>
       </c>
       <c r="R9">
-        <v>123.491746905376</v>
+        <v>235.40087716408</v>
       </c>
       <c r="S9">
-        <v>0.2577465843980262</v>
+        <v>0.3817995917279512</v>
       </c>
       <c r="T9">
-        <v>0.2577465843980262</v>
+        <v>0.3817995917279512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H10">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I10">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J10">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.498646</v>
       </c>
       <c r="O10">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="P10">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="Q10">
-        <v>0.6565147749648887</v>
+        <v>0.3459951675893332</v>
       </c>
       <c r="R10">
-        <v>5.908632974683999</v>
+        <v>3.113956508304</v>
       </c>
       <c r="S10">
-        <v>0.01233224086507802</v>
+        <v>0.005050564542715645</v>
       </c>
       <c r="T10">
-        <v>0.01233224086507802</v>
+        <v>0.005050564542715645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H11">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I11">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J11">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4346316666666666</v>
+        <v>0.4346316666666667</v>
       </c>
       <c r="N11">
         <v>1.303895</v>
       </c>
       <c r="O11">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="P11">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="Q11">
-        <v>1.716701492647777</v>
+        <v>0.9047327543866666</v>
       </c>
       <c r="R11">
-        <v>15.45031343383</v>
+        <v>8.14259478948</v>
       </c>
       <c r="S11">
-        <v>0.03224721987696863</v>
+        <v>0.01320657511425784</v>
       </c>
       <c r="T11">
-        <v>0.03224721987696863</v>
+        <v>0.01320657511425784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.09816233333333334</v>
+        <v>0.09482533333333333</v>
       </c>
       <c r="N12">
-        <v>0.294487</v>
+        <v>0.284476</v>
       </c>
       <c r="O12">
-        <v>0.09285434561755439</v>
+        <v>0.06879423637033719</v>
       </c>
       <c r="P12">
-        <v>0.09285434561755437</v>
+        <v>0.0687942363703372</v>
       </c>
       <c r="Q12">
-        <v>0.3877200790442222</v>
+        <v>0.1973891724693333</v>
       </c>
       <c r="R12">
-        <v>3.489480711398</v>
+        <v>1.776502552224</v>
       </c>
       <c r="S12">
-        <v>0.007283091843981964</v>
+        <v>0.002881331443255487</v>
       </c>
       <c r="T12">
-        <v>0.007283091843981963</v>
+        <v>0.002881331443255488</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3581553333333334</v>
+        <v>0.6827183333333333</v>
       </c>
       <c r="N13">
-        <v>1.074466</v>
+        <v>2.048155</v>
       </c>
       <c r="O13">
-        <v>0.3387885961631963</v>
+        <v>0.495301041891365</v>
       </c>
       <c r="P13">
-        <v>0.3387885961631963</v>
+        <v>0.4953010418913651</v>
       </c>
       <c r="Q13">
-        <v>1.414636443884889</v>
+        <v>1.421151944413333</v>
       </c>
       <c r="R13">
-        <v>12.731727994964</v>
+        <v>12.79036749972</v>
       </c>
       <c r="S13">
-        <v>0.02657310700043101</v>
+        <v>0.02074485510960834</v>
       </c>
       <c r="T13">
-        <v>0.026573107000431</v>
+        <v>0.02074485510960834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H14">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I14">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J14">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.498646</v>
       </c>
       <c r="O14">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="P14">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="Q14">
-        <v>0.5072954581108888</v>
+        <v>0.7601393975168889</v>
       </c>
       <c r="R14">
-        <v>4.565659122997999</v>
+        <v>6.841254577651999</v>
       </c>
       <c r="S14">
-        <v>0.00952924445534095</v>
+        <v>0.01109591534288928</v>
       </c>
       <c r="T14">
-        <v>0.009529244455340948</v>
+        <v>0.01109591534288928</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H15">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I15">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J15">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.4346316666666666</v>
+        <v>0.4346316666666667</v>
       </c>
       <c r="N15">
         <v>1.303895</v>
       </c>
       <c r="O15">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="P15">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="Q15">
-        <v>1.326512217792778</v>
+        <v>1.987666520387778</v>
       </c>
       <c r="R15">
-        <v>11.938609960135</v>
+        <v>17.88899868349</v>
       </c>
       <c r="S15">
-        <v>0.02491774565342304</v>
+        <v>0.02901438803483157</v>
       </c>
       <c r="T15">
-        <v>0.02491774565342304</v>
+        <v>0.02901438803483157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H16">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I16">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J16">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.09816233333333334</v>
+        <v>0.09482533333333333</v>
       </c>
       <c r="N16">
-        <v>0.294487</v>
+        <v>0.284476</v>
       </c>
       <c r="O16">
-        <v>0.09285434561755439</v>
+        <v>0.06879423637033719</v>
       </c>
       <c r="P16">
-        <v>0.09285434561755437</v>
+        <v>0.0687942363703372</v>
       </c>
       <c r="Q16">
-        <v>0.2995951387812222</v>
+        <v>0.4336571741235555</v>
       </c>
       <c r="R16">
-        <v>2.696356249031</v>
+        <v>3.902914567112</v>
       </c>
       <c r="S16">
-        <v>0.005627717081697218</v>
+        <v>0.006330185368144479</v>
       </c>
       <c r="T16">
-        <v>0.005627717081697215</v>
+        <v>0.006330185368144479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3581553333333334</v>
+        <v>0.6827183333333333</v>
       </c>
       <c r="N17">
-        <v>1.074466</v>
+        <v>2.048155</v>
       </c>
       <c r="O17">
-        <v>0.3387885961631963</v>
+        <v>0.495301041891365</v>
       </c>
       <c r="P17">
-        <v>0.3387885961631963</v>
+        <v>0.4953010418913651</v>
       </c>
       <c r="Q17">
-        <v>1.093103567850889</v>
+        <v>3.122221591512222</v>
       </c>
       <c r="R17">
-        <v>9.837932110658</v>
+        <v>28.09999432361</v>
       </c>
       <c r="S17">
-        <v>0.02053330252915369</v>
+        <v>0.04557572804978963</v>
       </c>
       <c r="T17">
-        <v>0.02053330252915368</v>
+        <v>0.04557572804978963</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H18">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I18">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J18">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.498646</v>
       </c>
       <c r="O18">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="P18">
-        <v>0.1572274770187174</v>
+        <v>0.1205865197384776</v>
       </c>
       <c r="Q18">
-        <v>0.4558418395242221</v>
+        <v>0.312084081498</v>
       </c>
       <c r="R18">
-        <v>4.102576555718</v>
+        <v>2.808756733482</v>
       </c>
       <c r="S18">
-        <v>0.008562718731948716</v>
+        <v>0.004555557256309991</v>
       </c>
       <c r="T18">
-        <v>0.008562718731948716</v>
+        <v>0.004555557256309991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H19">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I19">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J19">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4346316666666666</v>
+        <v>0.4346316666666667</v>
       </c>
       <c r="N19">
         <v>1.303895</v>
       </c>
       <c r="O19">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="P19">
-        <v>0.4111295812005319</v>
+        <v>0.3153182019998201</v>
       </c>
       <c r="Q19">
-        <v>1.191967639059444</v>
+        <v>0.8160596363850001</v>
       </c>
       <c r="R19">
-        <v>10.727708751535</v>
+        <v>7.344536727465001</v>
       </c>
       <c r="S19">
-        <v>0.02239040550008276</v>
+        <v>0.01191219488117084</v>
       </c>
       <c r="T19">
-        <v>0.02239040550008276</v>
+        <v>0.01191219488117084</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H20">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I20">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J20">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.09816233333333334</v>
+        <v>0.09482533333333333</v>
       </c>
       <c r="N20">
-        <v>0.294487</v>
+        <v>0.284476</v>
       </c>
       <c r="O20">
-        <v>0.09285434561755439</v>
+        <v>0.06879423637033719</v>
       </c>
       <c r="P20">
-        <v>0.09285434561755437</v>
+        <v>0.0687942363703372</v>
       </c>
       <c r="Q20">
-        <v>0.2692080068745555</v>
+        <v>0.178043002788</v>
       </c>
       <c r="R20">
-        <v>2.422872061871</v>
+        <v>1.602387025092</v>
       </c>
       <c r="S20">
-        <v>0.005056912822353698</v>
+        <v>0.002598931318101501</v>
       </c>
       <c r="T20">
-        <v>0.005056912822353696</v>
+        <v>0.002598931318101501</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H21">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I21">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J21">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3581553333333334</v>
+        <v>0.6827183333333333</v>
       </c>
       <c r="N21">
-        <v>1.074466</v>
+        <v>2.048155</v>
       </c>
       <c r="O21">
-        <v>0.3387885961631963</v>
+        <v>0.495301041891365</v>
       </c>
       <c r="P21">
-        <v>0.3387885961631963</v>
+        <v>0.4953010418913651</v>
       </c>
       <c r="Q21">
-        <v>0.9822330028642222</v>
+        <v>1.281864432765</v>
       </c>
       <c r="R21">
-        <v>8.840097025778</v>
+        <v>11.536779894885</v>
       </c>
       <c r="S21">
-        <v>0.01845066469006472</v>
+        <v>0.01871164588164267</v>
       </c>
       <c r="T21">
-        <v>0.01845066469006471</v>
+        <v>0.01871164588164266</v>
       </c>
     </row>
   </sheetData>
